--- a/YOY COMPARISION OF STORES & HO.xlsx
+++ b/YOY COMPARISION OF STORES & HO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAJA BHAIYA REPORTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAJA BHAIYA REPORTS\Christmas LY-CY\Christmas Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,14 +18,14 @@
     <sheet name="New Stores" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YOY – Like-to-Like Stores (LFL)'!$A$1:$G$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'YOY – Like-to-Like Stores (LFL)'!$A$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
   <si>
     <t>Site</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Difference</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>Raj Fashions Retail LLP - WAREHOUSE</t>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>46011</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4">
         <v>46012</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>46013</v>
@@ -1589,7 +1586,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>46014</v>
@@ -1613,7 +1610,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
         <v>46015</v>
@@ -1637,7 +1634,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4">
         <v>46016</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4">
         <v>46011</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4">
         <v>46012</v>
@@ -1853,7 +1850,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="4">
         <v>46013</v>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4">
         <v>46014</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="4">
         <v>46015</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="4">
         <v>46016</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="8">
         <v>46011</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="8">
         <v>46012</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="8">
         <v>46013</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59" s="8">
         <v>46014</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="8">
         <v>46015</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="8">
         <v>46016</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" s="8">
         <v>46011</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117" s="8">
         <v>46012</v>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118" s="8">
         <v>46013</v>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B119" s="8">
         <v>46014</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" s="8">
         <v>46015</v>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="8">
         <v>46016</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B128" s="8">
         <v>46011</v>
@@ -3701,7 +3698,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129" s="8">
         <v>46012</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B130" s="8">
         <v>46013</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B131" s="8">
         <v>46014</v>
@@ -3773,7 +3770,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B132" s="8">
         <v>46015</v>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B133" s="8">
         <v>46016</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B134" s="4">
         <v>46011</v>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B135" s="4">
         <v>46012</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B136" s="4">
         <v>46013</v>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B137" s="4">
         <v>46014</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B138" s="4">
         <v>46015</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B139" s="4">
         <v>46016</v>
@@ -3963,36 +3960,7 @@
         <v>-52307.28</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="10">
-        <f>SUM(C2:C139)</f>
-        <v>18799</v>
-      </c>
-      <c r="D140" s="10">
-        <f>SUM(D2:D139)</f>
-        <v>14446126.653999997</v>
-      </c>
-      <c r="E140" s="10">
-        <f>SUM(E2:E139)</f>
-        <v>15424</v>
-      </c>
-      <c r="F140" s="10">
-        <f>SUM(F2:F139)</f>
-        <v>11089637.811000004</v>
-      </c>
-      <c r="G140" s="10">
-        <f>SUM(G2:G139)</f>
-        <v>-3356488.842999998</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A140:B140"/>
-  </mergeCells>
   <conditionalFormatting sqref="G2:G139">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -4050,7 +4018,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8">
         <v>46011</v>
@@ -4074,7 +4042,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8">
         <v>46013</v>
@@ -4098,7 +4066,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8">
         <v>46014</v>
@@ -4122,7 +4090,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8">
         <v>46015</v>
@@ -4146,7 +4114,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8">
         <v>46016</v>
@@ -4170,7 +4138,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="10">
@@ -4411,7 +4379,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="10">
@@ -4883,7 +4851,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="14">
